--- a/biology/Microbiologie/Actinopoda/Actinopoda.xlsx
+++ b/biology/Microbiologie/Actinopoda/Actinopoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les actinopodes (Actinopoda) sont des organismes vivants unicellulaires hétérotrophes nucléés, ce qui en fait des eucaryotes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des organismes aquatiques unicellulaires (toujours composés d'une unique cellule). Ils sont d'assez grande taille (jusqu'à plusieurs centaines de micromètres µm), d'architecture complexe, et le plus souvent à symétrie sphérique.
 Ils sont caractérisés par la possession de fins pseudopodes rayonnants. La plupart des actinopodes possèdent un squelette externe calcaire ou siliceux (SiO2). Ils sont adaptés à la vie planctonique.
@@ -549,7 +563,9 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La monophylie du groupe est aujourd'hui contestée : les Héliozoaires notamment seraient polyphylétiques et leurs différents groupes se situeraient au sein ou à proximité des Chromistes, ainsi que parmi les Cercozoaires où ils retrouvent les Radiolaires Phéodariés
 Les autres Radiolaires : Acanthaires et Polycystines, formeraient ensemble et avec les Sticholonches le groupe frère d'un autre ensemble constitué des Cercozoaires et Foraminifères, au sein du groupe des Rhizaria.
@@ -581,7 +597,9 @@
           <t>Caractères propres aux Actinopodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La cellule est hérissée de spicules recouverts de cytoplasme et d'axopodes.
 L'axopode possède une structure particulière comprenant un centre rigide appelé axonème (constitué de paquet de microtubules). Ce caractère pourrait cependant avoir été développé plusieurs fois…</t>
@@ -612,7 +630,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Actinopodes sont principalement marins, mais quelques espèces vivent en eau douce.
 Ce sont des prédateurs planctoniques. Les proies, pouvant être constituées d'organismes unicellulaires ou pluricellulaires, collent aux axopodes où elles sont phagocytées. Mais la digestion s'effectue dans une zone plus centrale de la cellule.
@@ -646,7 +666,9 @@
           <t>Géologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les radiolaires ont une grande importance géologique. Les espèces plus anciennes connues datent du Cambrien inférieur (-540 MA).
 </t>
@@ -677,7 +699,9 @@
           <t>Liste des genres d'Actinopoda</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Actinophrys</t>
         </is>
